--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B97232-C443-44F6-B6CC-013185B0C421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDBE31D-528C-4EC2-822A-9A87599C58D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>NRO</t>
   </si>
@@ -649,7 +649,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,9 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="21"/>
@@ -772,7 +774,9 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="21"/>
@@ -788,7 +792,9 @@
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="H11" s="21"/>
@@ -820,7 +826,9 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="21"/>
@@ -836,7 +844,9 @@
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="21"/>
@@ -852,7 +862,9 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="21"/>
@@ -868,7 +880,9 @@
       <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
       <c r="H16" s="21"/>
@@ -884,7 +898,9 @@
       <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
       <c r="H17" s="21"/>
@@ -900,7 +916,9 @@
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="21"/>
@@ -932,7 +950,9 @@
       <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="21"/>

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDBE31D-528C-4EC2-822A-9A87599C58D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F17388-78C5-4D45-A43E-4D41C91FE114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="PARTICIPACION" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$I$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$I$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PARTICIPACION!$B$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>NRO</t>
   </si>
@@ -164,13 +164,13 @@
     <t>VALVERDE FLORES JOSE LUIS</t>
   </si>
   <si>
-    <t>VALDEZ ESCOBAR ALISON</t>
-  </si>
-  <si>
     <t>AGIP MERCEDES HANS MANUEL</t>
   </si>
   <si>
     <t>LOPEZ SEGURA LUIS ANTONIO</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,13 +237,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -292,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,9 +351,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,10 +636,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -759,7 +749,9 @@
       <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -777,7 +769,9 @@
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -810,8 +804,12 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="22"/>
       <c r="I12" s="21"/>
@@ -829,7 +827,9 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -847,7 +847,9 @@
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -865,7 +867,9 @@
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -875,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -889,7 +893,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -901,7 +905,9 @@
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -919,7 +925,9 @@
       <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -928,39 +936,25 @@
       <c r="B19" s="2">
         <v>11</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I20">
-    <sortCondition ref="C9:C20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I19">
+    <sortCondition ref="C9:C19"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F17388-78C5-4D45-A43E-4D41C91FE114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D0BE53-D03F-4319-A317-44C636B1D840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>NRO</t>
   </si>
@@ -639,7 +639,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,8 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +753,9 @@
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
@@ -789,8 +792,12 @@
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
@@ -830,7 +837,9 @@
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
@@ -850,7 +859,9 @@
       <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
@@ -887,8 +898,12 @@
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
@@ -928,7 +943,9 @@
       <c r="F18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
@@ -948,7 +965,9 @@
       <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D0BE53-D03F-4319-A317-44C636B1D840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF13B4-A903-4AAD-AE8B-2BD2795FF4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>NRO</t>
   </si>
@@ -639,7 +639,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,9 @@
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
@@ -881,7 +883,9 @@
       <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
@@ -923,7 +927,9 @@
       <c r="F17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF13B4-A903-4AAD-AE8B-2BD2795FF4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC403B5-7A32-4B81-A5E8-512EAC7DD7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>NRO</t>
   </si>
@@ -346,10 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +639,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,9 +647,9 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.7109375" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,6 +665,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -675,6 +676,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -685,6 +687,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -695,6 +698,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -705,6 +709,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -718,22 +723,22 @@
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>44164</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>44171</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>44178</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>44185</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>44192</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>44199</v>
       </c>
     </row>
@@ -756,7 +761,9 @@
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +785,9 @@
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,7 +809,9 @@
       <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +853,9 @@
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,7 +877,9 @@
       <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,7 +901,7 @@
       <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,7 +923,7 @@
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,7 +945,9 @@
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,7 +969,9 @@
       <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,7 +993,9 @@
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="21"/>
     </row>
   </sheetData>

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC403B5-7A32-4B81-A5E8-512EAC7DD7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D66B4-ACC4-4B5F-8B3A-582F0181B57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>NRO</t>
   </si>
@@ -639,7 +639,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,9 @@
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D66B4-ACC4-4B5F-8B3A-582F0181B57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A2F34-A2AF-4E28-914E-5F08F8B95BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>NRO</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -280,6 +283,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -343,13 +357,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +650,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I19"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,12 +666,12 @@
     <col min="9" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
@@ -667,7 +681,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="12" t="s">
         <v>22</v>
@@ -678,7 +692,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
         <v>33</v>
@@ -689,7 +703,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
         <v>34</v>
@@ -700,7 +714,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
         <v>24</v>
@@ -711,38 +725,38 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>44164</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>44171</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>44178</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>44185</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>44192</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <v>44199</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -764,9 +778,14 @@
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -788,9 +807,11 @@
       <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -812,9 +833,14 @@
       <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -831,10 +857,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="22"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -856,9 +882,11 @@
       <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -880,9 +908,11 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -902,9 +932,11 @@
         <v>25</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -926,9 +958,11 @@
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -950,9 +984,11 @@
       <c r="H17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -974,9 +1010,14 @@
       <c r="H18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -998,7 +1039,12 @@
       <c r="H19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I19">

--- a/SQL-ADM-55088.xlsx
+++ b/SQL-ADM-55088.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-ADM-003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A2F34-A2AF-4E28-914E-5F08F8B95BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3C532-6B44-4203-B673-54DF8F92D919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,6 +364,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +656,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +911,7 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="24" t="s">
         <v>25</v>
       </c>
     </row>
